--- a/combined_timetable2.xlsx
+++ b/combined_timetable2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="206">
   <si>
     <t>Monday</t>
   </si>
@@ -101,343 +101,343 @@
     <t>Branch: A1</t>
   </si>
   <si>
+    <t>GENERAL BIOLOGY Lecture</t>
+  </si>
+  <si>
     <t>GENERAL CHEMISTRY Tut</t>
   </si>
   <si>
     <t>MATHEMATICS I Lecture</t>
   </si>
   <si>
+    <t>PHYSICS LABORATORY Lab</t>
+  </si>
+  <si>
+    <t>MECHANICS OSCILLATIONS &amp;WAVES Tut</t>
+  </si>
+  <si>
+    <t>GENERAL CHEMISTRY Lecture</t>
+  </si>
+  <si>
+    <t>PROBABILITY &amp; STATISTICS Lecture</t>
+  </si>
+  <si>
+    <t>MECHANICS OSCILLATIONS &amp;WAVES Lecture</t>
+  </si>
+  <si>
+    <t>GENERAL BIOLOGY Tut</t>
+  </si>
+  <si>
     <t>PROBABILITY &amp; STATISTICS Tut</t>
   </si>
   <si>
-    <t>MECHANICS OSCILLATIONS &amp;WAVES Tut</t>
-  </si>
-  <si>
     <t>BIOLOGY LABORATORY Lab</t>
   </si>
   <si>
-    <t>GENERAL BIOLOGY Lecture</t>
+    <t>MATHEMATICS I Tut</t>
   </si>
   <si>
     <t>CHEMISTRY LABORATORY Lab</t>
   </si>
   <si>
-    <t>GENERAL CHEMISTRY Lecture</t>
-  </si>
-  <si>
-    <t>PROBABILITY &amp; STATISTICS Lecture</t>
-  </si>
-  <si>
-    <t>MECHANICS OSCILLATIONS &amp;WAVES Lecture</t>
-  </si>
-  <si>
-    <t>MATHEMATICS I Tut</t>
-  </si>
-  <si>
-    <t>GENERAL BIOLOGY Tut</t>
-  </si>
-  <si>
-    <t>PHYSICS LABORATORY Lab</t>
+    <t>INTEGRATED BIOLOGY Tut</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL CHEMISTRY Lecture</t>
+  </si>
+  <si>
+    <t>CELL BIOLOGY Tut</t>
+  </si>
+  <si>
+    <t>MICROBIOLOGY Lecture</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY II Tut</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY I Lecture</t>
+  </si>
+  <si>
+    <t>ORGANIC CHEMISTRY I Lecture</t>
+  </si>
+  <si>
+    <t>ECONOMIC ENV OF BUSINESSS Tut</t>
+  </si>
+  <si>
+    <t>FUNDA OF FIN AND ACCOUNT Lecture</t>
+  </si>
+  <si>
+    <t>MATHEMATIC &amp; STAT METHOD Lecture</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF ECONOMICS Lecture</t>
+  </si>
+  <si>
+    <t>ELEMENTARY REAL ANALYSIS Tut</t>
+  </si>
+  <si>
+    <t>DISCREET MATHEMATICS Lecture</t>
+  </si>
+  <si>
+    <t>OPTIMIZATION Lecture</t>
+  </si>
+  <si>
+    <t>MATHEMATICS III Lecture</t>
+  </si>
+  <si>
+    <t>CLASSICAL MECHANICS Lab</t>
+  </si>
+  <si>
+    <t>CLASSICAL MECHANICS Lecture</t>
+  </si>
+  <si>
+    <t>LOGIC IN COMPUTER SC Lecture</t>
+  </si>
+  <si>
+    <t>DISCR STRUC FOR COMP SCI Tut</t>
+  </si>
+  <si>
+    <t>FLUID MECHANICS Lecture</t>
+  </si>
+  <si>
+    <t>CHEMICAL PROCESS CALCULA Lecture</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO ENVIRONMENTAL STUDIES Lecture</t>
+  </si>
+  <si>
+    <t>CELL BIOLOGY Lecture</t>
+  </si>
+  <si>
+    <t>INTEGRATED BIOLOGY Lecture</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL CHEMISTRY Tut</t>
+  </si>
+  <si>
+    <t>INORGANIC CHEMISTRY I Lecture</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY II Lecture</t>
+  </si>
+  <si>
+    <t>FUNDA OF FIN AND ACCOUNT Tut</t>
+  </si>
+  <si>
+    <t>ECONOMIC ENV OF BUSINESSS Lecture</t>
+  </si>
+  <si>
+    <t>MATHEMATICS III Tut</t>
+  </si>
+  <si>
+    <t>ALGEBRA I Lecture</t>
+  </si>
+  <si>
+    <t>ELEMENTARY REAL ANALYSIS Lecture</t>
+  </si>
+  <si>
+    <t>ELEC, MAGNET &amp; OPTICS LAB Lab</t>
+  </si>
+  <si>
+    <t>OPTICS Lecture</t>
+  </si>
+  <si>
+    <t>OBJECT ORIENTED PROGRAMMING Lecture</t>
+  </si>
+  <si>
+    <t>DISCR STRUC FOR COMP SCI Lecture</t>
+  </si>
+  <si>
+    <t>CHEM ENGG THERMODYNAMICS Lecture</t>
+  </si>
+  <si>
+    <t>ENGG CHEMISTRY Lecture</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO ENVIRONMENTAL STUDIES Tut</t>
+  </si>
+  <si>
+    <t>INORGANIC CHEMISTRY I Tut</t>
+  </si>
+  <si>
+    <t>OBJECT ORIENTED PROGRAMMING Lab</t>
+  </si>
+  <si>
+    <t>CHEMICAL PROCESS CALCULA Tut</t>
+  </si>
+  <si>
+    <t>ENGG CHEMISTRY Tut</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY I Tut</t>
+  </si>
+  <si>
+    <t>ORGANIC CHEMISTRY I Tut</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF ECONOMICS Tut</t>
+  </si>
+  <si>
+    <t>OPTIMIZATION Tut</t>
   </si>
   <si>
     <t>MICROBIOLOGY Lab</t>
   </si>
   <si>
-    <t>CELL BIOLOGY Lecture</t>
-  </si>
-  <si>
-    <t>INTEGRATED BIOLOGY Tut</t>
-  </si>
-  <si>
-    <t>MICROBIOLOGY Lecture</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL CHEMISTRY Lecture</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO ENVIRONMENTAL STUDIES Tut</t>
-  </si>
-  <si>
-    <t>INORGANIC CHEMISTRY I Tut</t>
-  </si>
-  <si>
-    <t>ORGANIC CHEMISTRY I Lecture</t>
-  </si>
-  <si>
-    <t>PHYSICAL CHEMISTRY I Lecture</t>
-  </si>
-  <si>
-    <t>PHYSICAL CHEMISTRY II Tut</t>
-  </si>
-  <si>
-    <t>PRINCIPLES OF ECONOMICS Lecture</t>
-  </si>
-  <si>
-    <t>FUNDA OF FIN AND ACCOUNT Lecture</t>
-  </si>
-  <si>
     <t>MATHEMATIC &amp; STAT METHOD Tut</t>
   </si>
   <si>
-    <t>ECONOMIC ENV OF BUSINESSS Lecture</t>
-  </si>
-  <si>
-    <t>MATHEMATICS III Lecture</t>
-  </si>
-  <si>
     <t>ALGEBRA I Tut</t>
   </si>
   <si>
-    <t>ELEMENTARY REAL ANALYSIS Lecture</t>
-  </si>
-  <si>
-    <t>OPTIMIZATION Lecture</t>
-  </si>
-  <si>
-    <t>CLASSICAL MECHANICS Lecture</t>
+    <t>DISCREET MATHEMATICS Tut</t>
   </si>
   <si>
     <t>OPTICS Tut</t>
   </si>
   <si>
+    <t>LOGIC IN COMPUTER SC Tut</t>
+  </si>
+  <si>
     <t>CHEM ENGG THERMODYNAMICS Tut</t>
   </si>
   <si>
-    <t>INTEGRATED BIOLOGY Lecture</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO ENVIRONMENTAL STUDIES Lecture</t>
-  </si>
-  <si>
-    <t>ORGANIC CHEMISTRY I Tut</t>
-  </si>
-  <si>
-    <t>PHYSICAL CHEMISTRY II Lecture</t>
-  </si>
-  <si>
-    <t>PHYSICAL CHEMISTRY I Tut</t>
-  </si>
-  <si>
-    <t>INORGANIC CHEMISTRY I Lecture</t>
-  </si>
-  <si>
-    <t>PRINCIPLES OF ECONOMICS Tut</t>
-  </si>
-  <si>
-    <t>MATHEMATIC &amp; STAT METHOD Lecture</t>
-  </si>
-  <si>
-    <t>MATHEMATICS III Tut</t>
-  </si>
-  <si>
-    <t>ALGEBRA I Lecture</t>
-  </si>
-  <si>
-    <t>DISCREET MATHEMATICS Lecture</t>
-  </si>
-  <si>
-    <t>OPTIMIZATION Tut</t>
-  </si>
-  <si>
-    <t>CLASSICAL MECHANICS Lab</t>
-  </si>
-  <si>
-    <t>OPTICS Lecture</t>
-  </si>
-  <si>
-    <t>ELEC, MAGNET &amp; OPTICS LAB Lab</t>
-  </si>
-  <si>
-    <t>OBJECT ORIENTED PROGRAMMING Lecture</t>
-  </si>
-  <si>
-    <t>DISCR STRUC FOR COMP SCI Lecture</t>
-  </si>
-  <si>
-    <t>LOGIC IN COMPUTER SC Lecture</t>
-  </si>
-  <si>
-    <t>CHEM ENGG THERMODYNAMICS Lecture</t>
-  </si>
-  <si>
-    <t>ENGG CHEMISTRY Lecture</t>
-  </si>
-  <si>
-    <t>CHEMICAL PROCESS CALCULA Lecture</t>
-  </si>
-  <si>
-    <t>FLUID MECHANICS Lecture</t>
-  </si>
-  <si>
-    <t>ECONOMIC ENV OF BUSINESSS Tut</t>
-  </si>
-  <si>
-    <t>ELEMENTARY REAL ANALYSIS Tut</t>
-  </si>
-  <si>
-    <t>OBJECT ORIENTED PROGRAMMING Lab</t>
-  </si>
-  <si>
-    <t>LOGIC IN COMPUTER SC Tut</t>
-  </si>
-  <si>
     <t>FLUID MECHANICS Tut</t>
   </si>
   <si>
-    <t>CHEMICAL PROCESS CALCULA Tut</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL CHEMISTRY Tut</t>
-  </si>
-  <si>
-    <t>FUNDA OF FIN AND ACCOUNT Tut</t>
-  </si>
-  <si>
-    <t>CELL BIOLOGY Tut</t>
-  </si>
-  <si>
-    <t>DISCREET MATHEMATICS Tut</t>
-  </si>
-  <si>
-    <t>DISCR STRUC FOR COMP SCI Tut</t>
-  </si>
-  <si>
-    <t>ENGG CHEMISTRY Tut</t>
-  </si>
-  <si>
     <t>RECOMBINANT DNA TECH Lecture</t>
   </si>
   <si>
+    <t>PLANT PHYSIOLOGY Lecture</t>
+  </si>
+  <si>
     <t>ANIMAL PHYSIOLOGY Lecture</t>
   </si>
   <si>
-    <t>PLANT PHYSIOLOGY Lecture</t>
-  </si>
-  <si>
     <t>INSTRU METHODS OF ANAL Lecture</t>
   </si>
   <si>
+    <t>PHYSICAL CHEMISTRY IV Lecture</t>
+  </si>
+  <si>
     <t>ORGANIC CHEMISTRY III Lecture</t>
   </si>
   <si>
-    <t>PHYSICAL CHEMISTRY IV Lecture</t>
+    <t>MONEY BANK &amp; FIN MARKETS Tut</t>
+  </si>
+  <si>
+    <t>ISSUES IN ECONOMIC DEVELOPMENT Tut</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO TOPOLOGY Tut</t>
+  </si>
+  <si>
+    <t>NUMERICAL ANALYSIS Lecture</t>
+  </si>
+  <si>
+    <t>COMPUTATIONAL PHYSICS Tut</t>
+  </si>
+  <si>
+    <t>STATISTICAL MECHANICS Lecture</t>
+  </si>
+  <si>
+    <t>QUANTUM MECHANICS II Lecture</t>
+  </si>
+  <si>
+    <t>OPERATING SYSTEMS Lecture</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF PROGG LANG Lecture</t>
+  </si>
+  <si>
+    <t>COMPUTER ARCHITECTURE Lecture</t>
+  </si>
+  <si>
+    <t>THEORY OF COMPUTATION Lecture</t>
+  </si>
+  <si>
+    <t>KINETICS &amp; REACTOR DESIGN Lecture</t>
+  </si>
+  <si>
+    <t>PROCESS DESIGN PRINCIPLES I Lecture</t>
+  </si>
+  <si>
+    <t>PLANT PHYSIOLOGY Tut</t>
+  </si>
+  <si>
+    <t>ORGANIC CHEMISTRY III Tut</t>
+  </si>
+  <si>
+    <t>PHYSICAL CHEMISTRY IV Tut</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL ECONOMICS Lecture</t>
+  </si>
+  <si>
+    <t>ISSUES IN ECONOMIC DEVELOPMENT Lecture</t>
   </si>
   <si>
     <t>MONEY BANK &amp; FIN MARKETS Lecture</t>
   </si>
   <si>
+    <t>ORDINARY DIFFERENTIAL EQUATIONS Lecture</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO TOPOLOGY Lecture</t>
+  </si>
+  <si>
+    <t>COMPUTATIONAL PHYSICS Lecture</t>
+  </si>
+  <si>
+    <t>CHEMICAL ENGINEERING LABORATORY I Lab</t>
+  </si>
+  <si>
+    <t>SEPARATION PROCESSES II Lecture</t>
+  </si>
+  <si>
     <t>INTERNATIONAL ECONOMICS Tut</t>
   </si>
   <si>
     <t>NUMERICAL ANALYSIS Tut</t>
   </si>
   <si>
+    <t>STATISTICAL MECHANICS Tut</t>
+  </si>
+  <si>
+    <t>RECOMBINANT DNA TECH Tut</t>
+  </si>
+  <si>
+    <t>ANIMAL PHYSIOLOGY Tut</t>
+  </si>
+  <si>
+    <t>INSTRU METHODS OF ANAL Lab</t>
+  </si>
+  <si>
+    <t>COMPUTER ARCHITECTURE Lab</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF PROGG LANG Tut</t>
+  </si>
+  <si>
+    <t>KINETICS &amp; REACTOR DESIGN Tut</t>
+  </si>
+  <si>
     <t>ORDINARY DIFFERENTIAL EQUATIONS Tut</t>
   </si>
   <si>
-    <t>STATISTICAL MECHANICS Tut</t>
-  </si>
-  <si>
-    <t>QUANTUM MECHANICS II Lecture</t>
+    <t>QUANTUM MECHANICS II Tut</t>
+  </si>
+  <si>
+    <t>THEORY OF COMPUTATION Tut</t>
   </si>
   <si>
     <t>OPERATING SYSTEMS Tut</t>
   </si>
   <si>
-    <t>PRINCIPLES OF PROGG LANG Lecture</t>
-  </si>
-  <si>
-    <t>COMPUTER ARCHITECTURE Lecture</t>
-  </si>
-  <si>
-    <t>THEORY OF COMPUTATION Tut</t>
-  </si>
-  <si>
-    <t>KINETICS &amp; REACTOR DESIGN Lecture</t>
-  </si>
-  <si>
     <t>PROCESS DESIGN PRINCIPLES I Tut</t>
   </si>
   <si>
-    <t>RECOMBINANT DNA TECH Tut</t>
-  </si>
-  <si>
-    <t>ANIMAL PHYSIOLOGY Tut</t>
-  </si>
-  <si>
-    <t>PLANT PHYSIOLOGY Tut</t>
-  </si>
-  <si>
-    <t>ISSUES IN ECONOMIC DEVELOPMENT Lecture</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL ECONOMICS Lecture</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO TOPOLOGY Lecture</t>
-  </si>
-  <si>
-    <t>ORDINARY DIFFERENTIAL EQUATIONS Lecture</t>
-  </si>
-  <si>
-    <t>NUMERICAL ANALYSIS Lecture</t>
-  </si>
-  <si>
-    <t>STATISTICAL MECHANICS Lecture</t>
-  </si>
-  <si>
-    <t>COMPUTATIONAL PHYSICS Lecture</t>
-  </si>
-  <si>
-    <t>ORGANIC CHEMISTRY III Tut</t>
-  </si>
-  <si>
-    <t>COMPUTER ARCHITECTURE Lab</t>
-  </si>
-  <si>
-    <t>OPERATING SYSTEMS Lecture</t>
-  </si>
-  <si>
-    <t>THEORY OF COMPUTATION Lecture</t>
-  </si>
-  <si>
-    <t>CHEMICAL ENGINEERING LABORATORY I Lab</t>
-  </si>
-  <si>
-    <t>SEPARATION PROCESSES II Lecture</t>
-  </si>
-  <si>
-    <t>PROCESS DESIGN PRINCIPLES I Lecture</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO TOPOLOGY Tut</t>
-  </si>
-  <si>
     <t>SEPARATION PROCESSES II Tut</t>
-  </si>
-  <si>
-    <t>PHYSICAL CHEMISTRY IV Tut</t>
-  </si>
-  <si>
-    <t>PRINCIPLES OF PROGG LANG Tut</t>
-  </si>
-  <si>
-    <t>KINETICS &amp; REACTOR DESIGN Tut</t>
-  </si>
-  <si>
-    <t>MONEY BANK &amp; FIN MARKETS Tut</t>
-  </si>
-  <si>
-    <t>ISSUES IN ECONOMIC DEVELOPMENT Tut</t>
-  </si>
-  <si>
-    <t>COMPUTATIONAL PHYSICS Tut</t>
-  </si>
-  <si>
-    <t>QUANTUM MECHANICS II Tut</t>
-  </si>
-  <si>
-    <t>INSTRU METHODS OF ANAL Lab</t>
   </si>
   <si>
     <t>Course</t>
@@ -1029,24 +1029,24 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>38</v>
+      <c r="E3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
+      <c r="F4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
+      <c r="F5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1068,6 +1068,15 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
@@ -1078,15 +1087,6 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -1115,16 +1115,16 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
+      <c r="G16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
+      <c r="G17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1136,9 +1136,6 @@
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -1149,6 +1146,15 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
@@ -1159,14 +1165,8 @@
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
+      <c r="C23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1264,19 +1264,34 @@
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F42" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
@@ -1287,28 +1302,16 @@
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
       <c r="E45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" t="s">
-        <v>35</v>
-      </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1320,9 +1323,6 @@
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
@@ -1346,42 +1346,30 @@
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G52" t="s">
-        <v>39</v>
+      <c r="C52" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
+      <c r="C53" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G54" t="s">
-        <v>36</v>
+      <c r="C54" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
@@ -1407,8 +1395,14 @@
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C60" t="s">
-        <v>30</v>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1428,76 +1422,76 @@
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G63" t="s">
-        <v>38</v>
+      <c r="E63" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="F65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -1505,41 +1499,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -1548,6 +1539,15 @@
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
@@ -1558,14 +1558,8 @@
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D83" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" t="s">
-        <v>34</v>
+      <c r="C83" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -1663,19 +1657,34 @@
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F102" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
@@ -1686,28 +1695,16 @@
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
       <c r="E105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D106" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" t="s">
-        <v>35</v>
-      </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -1719,9 +1716,6 @@
       <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C108" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
@@ -1745,42 +1739,30 @@
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G112" t="s">
-        <v>39</v>
+      <c r="C112" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D113" t="s">
-        <v>36</v>
-      </c>
-      <c r="F113" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s">
-        <v>39</v>
+      <c r="C113" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G114" t="s">
-        <v>36</v>
+      <c r="C114" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F115" t="s">
-        <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
@@ -1806,8 +1788,14 @@
       <c r="A120" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C120" t="s">
-        <v>30</v>
+      <c r="D120" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -1989,65 +1977,53 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2059,17 +2035,8 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2077,23 +2044,44 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2118,36 +2106,42 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -2158,14 +2152,8 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2173,30 +2161,24 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>66</v>
+      <c r="C23" t="s">
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2204,7 +2186,19 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2229,57 +2223,42 @@
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F29" t="s">
-        <v>68</v>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
       <c r="D30" t="s">
         <v>67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
@@ -2291,7 +2270,13 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2303,25 +2288,28 @@
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2341,33 +2329,27 @@
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" t="s">
-        <v>70</v>
+      <c r="C41" t="s">
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2375,24 +2357,33 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
       <c r="D43" t="s">
         <v>70</v>
       </c>
-      <c r="E43" t="s">
-        <v>84</v>
-      </c>
       <c r="F43" t="s">
         <v>70</v>
-      </c>
-      <c r="G43" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2404,54 +2395,51 @@
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
       <c r="D45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
@@ -2475,44 +2463,41 @@
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" t="s">
-        <v>58</v>
+      <c r="D53" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C55" t="s">
-        <v>59</v>
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2524,22 +2509,25 @@
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
@@ -2568,65 +2556,53 @@
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
-        <v>40</v>
-      </c>
       <c r="D64" t="s">
         <v>61</v>
       </c>
+      <c r="E64" t="s">
+        <v>78</v>
+      </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C65" t="s">
-        <v>41</v>
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2638,17 +2614,8 @@
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C69" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" t="s">
-        <v>62</v>
-      </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2656,23 +2623,44 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2697,36 +2685,42 @@
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E76" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C77" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
-        <v>47</v>
-      </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="F78" t="s">
+        <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
@@ -2737,14 +2731,8 @@
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" t="s">
-        <v>64</v>
-      </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2752,30 +2740,24 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
         <v>65</v>
-      </c>
-      <c r="E82" t="s">
-        <v>48</v>
-      </c>
-      <c r="G82" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D83" t="s">
-        <v>66</v>
+      <c r="C83" t="s">
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2783,7 +2765,19 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2808,57 +2802,42 @@
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C88" t="s">
+        <v>47</v>
+      </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="G88" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F89" t="s">
-        <v>68</v>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" t="s">
+        <v>48</v>
       </c>
       <c r="G89" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C90" t="s">
-        <v>50</v>
-      </c>
       <c r="D90" t="s">
         <v>67</v>
-      </c>
-      <c r="E90" t="s">
-        <v>50</v>
-      </c>
-      <c r="G90" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C91" t="s">
-        <v>51</v>
-      </c>
-      <c r="D91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E91" t="s">
-        <v>51</v>
-      </c>
-      <c r="F91" t="s">
-        <v>68</v>
-      </c>
-      <c r="G91" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
@@ -2870,7 +2849,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2882,25 +2867,28 @@
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" t="s">
-        <v>53</v>
-      </c>
       <c r="F95" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" t="s">
+        <v>68</v>
+      </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="F96" t="s">
+        <v>68</v>
       </c>
       <c r="G96" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2920,33 +2908,27 @@
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C100" t="s">
-        <v>54</v>
-      </c>
-      <c r="E100" t="s">
-        <v>54</v>
-      </c>
-      <c r="G100" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D101" t="s">
-        <v>69</v>
-      </c>
-      <c r="E101" t="s">
-        <v>70</v>
+      <c r="C101" t="s">
+        <v>52</v>
       </c>
       <c r="F101" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="G101" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2954,24 +2936,33 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" t="s">
+        <v>70</v>
+      </c>
+      <c r="G102" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
       <c r="D103" t="s">
         <v>70</v>
       </c>
-      <c r="E103" t="s">
-        <v>84</v>
-      </c>
       <c r="F103" t="s">
         <v>70</v>
-      </c>
-      <c r="G103" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2983,54 +2974,51 @@
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C105" t="s">
-        <v>56</v>
-      </c>
       <c r="D105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E105" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="G105" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C106" t="s">
+        <v>54</v>
+      </c>
       <c r="D106" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E106" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F106" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="G106" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C107" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107" t="s">
-        <v>72</v>
-      </c>
-      <c r="E107" t="s">
-        <v>57</v>
-      </c>
-      <c r="G107" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F108" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
@@ -3054,44 +3042,41 @@
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C112" t="s">
+        <v>55</v>
+      </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C113" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" t="s">
-        <v>58</v>
-      </c>
-      <c r="G113" t="s">
-        <v>58</v>
+      <c r="D113" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D114" t="s">
-        <v>74</v>
-      </c>
-      <c r="E114" t="s">
-        <v>74</v>
-      </c>
-      <c r="F114" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C115" t="s">
-        <v>59</v>
+      <c r="D115" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F115" t="s">
+        <v>73</v>
+      </c>
+      <c r="G115" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3103,22 +3088,25 @@
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D117" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D118" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C119" t="s">
+        <v>56</v>
+      </c>
+      <c r="E119" t="s">
+        <v>56</v>
+      </c>
+      <c r="G119" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
@@ -3147,50 +3135,44 @@
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D124" t="s">
-        <v>76</v>
-      </c>
       <c r="E124" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F124" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G124" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C125" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D126" t="s">
-        <v>77</v>
-      </c>
-      <c r="E126" t="s">
-        <v>77</v>
-      </c>
-      <c r="F126" t="s">
-        <v>77</v>
+      <c r="G126" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D127" t="s">
-        <v>78</v>
-      </c>
-      <c r="F127" t="s">
-        <v>78</v>
-      </c>
-      <c r="G127" t="s">
-        <v>78</v>
+      <c r="C127" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3202,26 +3184,38 @@
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G129" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G130" t="s">
-        <v>93</v>
+      <c r="D130" t="s">
+        <v>74</v>
+      </c>
+      <c r="F130" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D131" t="s">
+        <v>75</v>
+      </c>
+      <c r="F131" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E132" t="s">
-        <v>86</v>
+      <c r="F132" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3246,44 +3240,50 @@
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C136" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" t="s">
-        <v>79</v>
-      </c>
-      <c r="F136" t="s">
-        <v>79</v>
+      <c r="E136" t="s">
+        <v>81</v>
       </c>
       <c r="G136" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C137" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" t="s">
+        <v>59</v>
+      </c>
+      <c r="F137" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C138" t="s">
+        <v>60</v>
+      </c>
       <c r="D138" t="s">
-        <v>80</v>
-      </c>
-      <c r="E138" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F138" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D139" t="s">
+        <v>76</v>
+      </c>
       <c r="E139" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3296,43 +3296,37 @@
         <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="E141" t="s">
+        <v>82</v>
       </c>
       <c r="F141" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="G141" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G142" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D144" t="s">
-        <v>82</v>
-      </c>
-      <c r="E144" t="s">
-        <v>88</v>
-      </c>
       <c r="F144" t="s">
-        <v>82</v>
-      </c>
-      <c r="G144" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -3383,22 +3377,22 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3406,44 +3400,32 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>95</v>
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
+      <c r="G6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>78</v>
+      <c r="C7" t="s">
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3455,25 +3437,28 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3481,24 +3466,39 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3523,17 +3523,20 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3541,27 +3544,27 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>77</v>
+      <c r="C18" t="s">
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3569,19 +3572,10 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3593,38 +3587,47 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" t="s">
-        <v>93</v>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3644,8 +3647,8 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>135</v>
+      <c r="C27" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3653,41 +3656,44 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
-        <v>117</v>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3695,16 +3701,16 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3716,14 +3722,11 @@
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3731,16 +3734,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3748,16 +3745,16 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3765,13 +3762,13 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3800,16 +3797,16 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3817,44 +3814,44 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3866,17 +3863,11 @@
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" t="s">
-        <v>130</v>
-      </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3884,29 +3875,41 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E48" t="s">
-        <v>86</v>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3935,16 +3938,16 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3952,47 +3955,38 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s">
-        <v>77</v>
-      </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
-        <v>78</v>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4004,50 +3998,59 @@
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
       <c r="D57" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
       <c r="E58" t="s">
         <v>122</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
-      </c>
-      <c r="G58" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
       <c r="D60" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4067,22 +4070,19 @@
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F63" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" t="s">
-        <v>79</v>
+      <c r="E64" t="s">
+        <v>81</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4090,38 +4090,41 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
-      </c>
-      <c r="E65" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
+        <v>59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
       <c r="D66" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D67" t="s">
+        <v>76</v>
+      </c>
       <c r="E67" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="F67" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4133,31 +4136,31 @@
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C69" t="s">
-        <v>96</v>
-      </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D70" t="s">
-        <v>114</v>
+      <c r="C70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4165,36 +4168,36 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4220,16 +4223,19 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>115</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="G76" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4237,44 +4243,44 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" t="s">
-        <v>98</v>
+        <v>59</v>
+      </c>
+      <c r="D77" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C79" t="s">
-        <v>99</v>
-      </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4286,53 +4292,47 @@
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C81" t="s">
-        <v>100</v>
-      </c>
       <c r="D81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G82" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" t="s">
+        <v>100</v>
+      </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="G83" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" t="s">
-        <v>88</v>
-      </c>
       <c r="F84" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4352,61 +4352,70 @@
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G87" t="s">
-        <v>135</v>
+      <c r="C87" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C88" t="s">
-        <v>60</v>
-      </c>
       <c r="D88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F88" t="s">
-        <v>79</v>
+        <v>117</v>
+      </c>
+      <c r="E88" t="s">
+        <v>81</v>
       </c>
       <c r="G88" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E89" t="s">
-        <v>117</v>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" t="s">
+        <v>59</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
       <c r="D90" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F90" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C91" t="s">
-        <v>101</v>
+      <c r="D91" t="s">
+        <v>118</v>
       </c>
       <c r="E91" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="F91" t="s">
+        <v>117</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4418,48 +4427,36 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C93" t="s">
-        <v>102</v>
-      </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>77</v>
+      </c>
+      <c r="E93" t="s">
+        <v>82</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="G93" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D94" t="s">
-        <v>116</v>
-      </c>
-      <c r="E94" t="s">
-        <v>117</v>
-      </c>
-      <c r="F94" t="s">
-        <v>117</v>
-      </c>
-      <c r="G94" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G95" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4467,16 +4464,13 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F96" t="s">
-        <v>117</v>
-      </c>
-      <c r="G96" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4504,17 +4498,14 @@
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C100" t="s">
-        <v>60</v>
-      </c>
       <c r="D100" t="s">
-        <v>79</v>
-      </c>
-      <c r="F100" t="s">
-        <v>79</v>
+        <v>120</v>
+      </c>
+      <c r="E100" t="s">
+        <v>81</v>
       </c>
       <c r="G100" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4522,38 +4513,44 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
-      </c>
-      <c r="G101" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C102" t="s">
+        <v>60</v>
+      </c>
       <c r="D102" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E102" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F102" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D103" t="s">
+        <v>121</v>
+      </c>
       <c r="E103" t="s">
-        <v>87</v>
+        <v>121</v>
+      </c>
+      <c r="F103" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4566,33 +4563,27 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="E105" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G105" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D106" t="s">
-        <v>120</v>
-      </c>
       <c r="E106" t="s">
-        <v>120</v>
-      </c>
-      <c r="F106" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G106" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4600,24 +4591,21 @@
         <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C108" t="s">
+        <v>104</v>
+      </c>
       <c r="D108" t="s">
-        <v>82</v>
-      </c>
-      <c r="E108" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
-      </c>
-      <c r="G108" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4645,17 +4633,14 @@
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C112" t="s">
-        <v>60</v>
-      </c>
       <c r="D112" t="s">
-        <v>79</v>
-      </c>
-      <c r="F112" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="E112" t="s">
+        <v>81</v>
       </c>
       <c r="G112" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4663,41 +4648,41 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>106</v>
-      </c>
-      <c r="E113" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="F113" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
       <c r="D114" t="s">
-        <v>80</v>
-      </c>
-      <c r="E114" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F114" t="s">
-        <v>80</v>
-      </c>
-      <c r="G114" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D115" t="s">
+        <v>76</v>
+      </c>
       <c r="E115" t="s">
-        <v>87</v>
+        <v>127</v>
+      </c>
+      <c r="F115" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4709,14 +4694,20 @@
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C117" t="s">
+        <v>106</v>
+      </c>
       <c r="D117" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E117" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="F117" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="G117" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4726,36 +4717,30 @@
       <c r="E118" t="s">
         <v>122</v>
       </c>
-      <c r="F118" t="s">
-        <v>122</v>
-      </c>
-      <c r="G118" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C120" t="s">
+        <v>107</v>
+      </c>
       <c r="D120" t="s">
-        <v>122</v>
-      </c>
-      <c r="E120" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F120" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="G120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4775,38 +4760,32 @@
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C123" t="s">
-        <v>107</v>
+      <c r="G123" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D124" t="s">
-        <v>124</v>
+      <c r="F124" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F125" t="s">
-        <v>133</v>
+      <c r="G125" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C126" t="s">
-        <v>108</v>
-      </c>
-      <c r="E126" t="s">
-        <v>108</v>
-      </c>
       <c r="G126" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4814,13 +4793,13 @@
         <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E127" t="s">
-        <v>109</v>
-      </c>
-      <c r="G127" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D127" t="s">
+        <v>108</v>
+      </c>
+      <c r="F127" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4837,31 +4816,31 @@
       <c r="A130" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D130" t="s">
-        <v>125</v>
+      <c r="C130" t="s">
+        <v>109</v>
       </c>
       <c r="E130" t="s">
-        <v>125</v>
-      </c>
-      <c r="F130" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G130" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D131" t="s">
-        <v>126</v>
+      <c r="C131" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" t="s">
+        <v>110</v>
       </c>
       <c r="F131" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G131" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4869,10 +4848,16 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D132" t="s">
+        <v>111</v>
       </c>
       <c r="E132" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F132" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4898,7 +4883,7 @@
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4906,16 +4891,16 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D137" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E137" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G137" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4923,18 +4908,18 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="G138" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E139" t="s">
-        <v>131</v>
-      </c>
-      <c r="F139" t="s">
-        <v>134</v>
+      <c r="G139" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4946,41 +4931,41 @@
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D141" t="s">
-        <v>128</v>
-      </c>
       <c r="F141" t="s">
-        <v>128</v>
-      </c>
-      <c r="G141" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C142" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D143" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" t="s">
+        <v>124</v>
+      </c>
+      <c r="F143" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C144" t="s">
+        <v>113</v>
+      </c>
       <c r="D144" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F144" t="s">
-        <v>129</v>
-      </c>
-      <c r="G144" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -5031,38 +5016,32 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>107</v>
+      <c r="G3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>124</v>
+      <c r="F4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>133</v>
+      <c r="G5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5070,13 +5049,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5093,31 +5072,31 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>125</v>
+      <c r="C10" t="s">
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>126</v>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5125,10 +5104,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5148,38 +5133,32 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>107</v>
+      <c r="G15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>124</v>
+      <c r="F16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" t="s">
-        <v>133</v>
+      <c r="G17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5187,13 +5166,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5210,31 +5189,31 @@
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
-        <v>125</v>
+      <c r="C22" t="s">
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>126</v>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5242,10 +5221,16 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5265,38 +5250,32 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
-        <v>107</v>
+      <c r="G27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>124</v>
+      <c r="F28" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F29" t="s">
-        <v>133</v>
+      <c r="G29" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5304,13 +5283,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5327,31 +5306,31 @@
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" t="s">
-        <v>125</v>
+      <c r="C34" t="s">
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
-        <v>126</v>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5359,10 +5338,16 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5382,38 +5367,32 @@
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
-        <v>107</v>
+      <c r="G39" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
-        <v>124</v>
+      <c r="F40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F41" t="s">
-        <v>133</v>
+      <c r="G41" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" t="s">
-        <v>108</v>
-      </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5421,13 +5400,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5444,31 +5423,31 @@
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D46" t="s">
-        <v>125</v>
+      <c r="C46" t="s">
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D47" t="s">
-        <v>126</v>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5476,10 +5455,16 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5499,38 +5484,32 @@
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
-        <v>107</v>
+      <c r="G51" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
-        <v>124</v>
+      <c r="F52" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F53" t="s">
-        <v>133</v>
+      <c r="G53" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" t="s">
-        <v>108</v>
-      </c>
       <c r="G54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5538,13 +5517,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G55" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5561,31 +5540,31 @@
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" t="s">
-        <v>125</v>
+      <c r="C58" t="s">
+        <v>109</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D59" t="s">
-        <v>126</v>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" t="s">
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5593,10 +5572,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>111</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F60" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5622,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5630,16 +5615,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5647,18 +5632,18 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="G66" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
+      <c r="G67" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5670,41 +5655,41 @@
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D69" t="s">
-        <v>128</v>
-      </c>
       <c r="F69" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D71" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G72" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5730,7 +5715,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5738,16 +5723,16 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5755,18 +5740,18 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="G78" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E79" t="s">
-        <v>131</v>
-      </c>
-      <c r="F79" t="s">
-        <v>134</v>
+      <c r="G79" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5778,41 +5763,41 @@
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D81" t="s">
-        <v>128</v>
-      </c>
       <c r="F81" t="s">
-        <v>128</v>
-      </c>
-      <c r="G81" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C82" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D83" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F84" t="s">
-        <v>129</v>
-      </c>
-      <c r="G84" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5838,7 +5823,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5846,16 +5831,16 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5863,18 +5848,18 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="G90" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F91" t="s">
-        <v>134</v>
+      <c r="G91" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5886,41 +5871,41 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D93" t="s">
-        <v>128</v>
-      </c>
       <c r="F93" t="s">
-        <v>128</v>
-      </c>
-      <c r="G93" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C94" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D95" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C96" t="s">
+        <v>113</v>
+      </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
-      </c>
-      <c r="G96" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5946,7 +5931,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5954,16 +5939,16 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5971,18 +5956,18 @@
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="G102" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E103" t="s">
-        <v>131</v>
-      </c>
-      <c r="F103" t="s">
-        <v>134</v>
+      <c r="G103" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5994,41 +5979,41 @@
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D105" t="s">
-        <v>128</v>
-      </c>
       <c r="F105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G105" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C106" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D107" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C108" t="s">
+        <v>113</v>
+      </c>
       <c r="D108" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G108" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -6054,7 +6039,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6062,16 +6047,16 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6079,18 +6064,18 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="G114" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E115" t="s">
-        <v>131</v>
-      </c>
-      <c r="F115" t="s">
-        <v>134</v>
+      <c r="G115" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6102,41 +6087,41 @@
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D117" t="s">
-        <v>128</v>
-      </c>
       <c r="F117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C118" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D119" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C120" t="s">
+        <v>113</v>
+      </c>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F120" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -6277,7 +6262,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6302,7 +6287,7 @@
         <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -6316,7 +6301,7 @@
         <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -6333,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>204</v>
@@ -6347,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>204</v>
@@ -6358,10 +6343,10 @@
         <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>204</v>
@@ -6372,7 +6357,7 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -6389,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>204</v>
@@ -6403,7 +6388,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>204</v>
@@ -6417,7 +6402,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>204</v>
@@ -6428,10 +6413,10 @@
         <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>205</v>
@@ -6445,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>204</v>
@@ -6459,7 +6444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>204</v>
@@ -6473,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>204</v>
@@ -6484,7 +6469,7 @@
         <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -6501,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>204</v>
@@ -6515,7 +6500,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>204</v>
@@ -6526,7 +6511,7 @@
         <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -6543,21 +6528,21 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>204</v>
@@ -6565,16 +6550,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6582,10 +6567,10 @@
         <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>204</v>
@@ -6596,24 +6581,24 @@
         <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>204</v>
@@ -6621,16 +6606,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6638,10 +6623,10 @@
         <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>204</v>
@@ -6652,10 +6637,10 @@
         <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>204</v>
@@ -6666,7 +6651,7 @@
         <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -6680,10 +6665,10 @@
         <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>205</v>
@@ -6697,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>204</v>
@@ -6711,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>204</v>
@@ -6725,7 +6710,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
         <v>204</v>
@@ -6736,10 +6721,10 @@
         <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>205</v>
@@ -6795,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>205</v>
@@ -6809,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>204</v>
@@ -6823,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>204</v>
@@ -6837,7 +6822,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>204</v>
@@ -6848,10 +6833,10 @@
         <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
         <v>205</v>
@@ -6865,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
         <v>204</v>
@@ -6879,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
         <v>204</v>
@@ -6890,7 +6875,7 @@
         <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -6904,24 +6889,24 @@
         <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>204</v>
@@ -6929,16 +6914,16 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6946,10 +6931,10 @@
         <v>155</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>204</v>
@@ -6960,24 +6945,24 @@
         <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>204</v>
@@ -6985,16 +6970,16 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7002,10 +6987,10 @@
         <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>204</v>
@@ -7016,24 +7001,24 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>204</v>
@@ -7041,16 +7026,16 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7058,10 +7043,10 @@
         <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
         <v>204</v>
@@ -7075,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
         <v>204</v>
@@ -7100,24 +7085,24 @@
         <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>204</v>
@@ -7125,16 +7110,16 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7142,10 +7127,10 @@
         <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
         <v>204</v>
@@ -7156,21 +7141,21 @@
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -7181,16 +7166,16 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7198,10 +7183,10 @@
         <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>204</v>
@@ -7212,24 +7197,24 @@
         <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
@@ -7237,16 +7222,16 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7254,10 +7239,10 @@
         <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
         <v>204</v>
@@ -7268,69 +7253,69 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7338,10 +7323,10 @@
         <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
         <v>204</v>
@@ -7352,24 +7337,24 @@
         <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
         <v>204</v>
@@ -7377,16 +7362,16 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7394,10 +7379,10 @@
         <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
         <v>204</v>
@@ -7408,24 +7393,24 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
         <v>204</v>
@@ -7433,16 +7418,16 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7450,10 +7435,10 @@
         <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>204</v>
@@ -7464,24 +7449,24 @@
         <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
         <v>204</v>
@@ -7489,7 +7474,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -7498,7 +7483,7 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7506,10 +7491,10 @@
         <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
         <v>204</v>
@@ -7520,24 +7505,24 @@
         <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
         <v>204</v>
@@ -7545,13 +7530,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
         <v>204</v>
@@ -7559,13 +7544,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
         <v>204</v>
@@ -7573,13 +7558,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
         <v>205</v>
@@ -7587,13 +7572,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>204</v>
@@ -7601,13 +7586,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>204</v>
@@ -7615,13 +7600,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
         <v>204</v>
@@ -7629,10 +7614,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -7643,13 +7628,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
         <v>204</v>
@@ -7657,13 +7642,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
         <v>204</v>
@@ -7671,13 +7656,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
         <v>204</v>
@@ -7685,13 +7670,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
         <v>205</v>
@@ -7699,13 +7684,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
         <v>204</v>
@@ -7713,13 +7698,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
         <v>204</v>
@@ -7727,13 +7712,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
         <v>204</v>
@@ -7741,27 +7726,27 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>204</v>
@@ -7769,13 +7754,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
         <v>204</v>
@@ -7783,13 +7768,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>204</v>
@@ -7797,27 +7782,27 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
         <v>204</v>
@@ -7825,13 +7810,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
         <v>204</v>
@@ -7839,13 +7824,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
         <v>204</v>
@@ -7853,7 +7838,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -7867,13 +7852,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
         <v>204</v>
@@ -7881,13 +7866,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
         <v>204</v>
@@ -7895,10 +7880,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -7909,16 +7894,16 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -7926,10 +7911,10 @@
         <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
         <v>204</v>
@@ -7940,24 +7925,24 @@
         <v>172</v>
       </c>
       <c r="B119" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
         <v>204</v>
@@ -7965,16 +7950,16 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -7982,10 +7967,10 @@
         <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
         <v>204</v>
@@ -7996,24 +7981,24 @@
         <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>204</v>
@@ -8021,16 +8006,16 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8038,10 +8023,10 @@
         <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D126" t="s">
         <v>204</v>
@@ -8052,10 +8037,10 @@
         <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
         <v>204</v>
@@ -8066,10 +8051,10 @@
         <v>174</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
         <v>204</v>
@@ -8080,10 +8065,10 @@
         <v>174</v>
       </c>
       <c r="B129" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
         <v>205</v>
@@ -8097,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>204</v>
@@ -8111,7 +8096,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
         <v>204</v>
@@ -8122,10 +8107,10 @@
         <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
         <v>204</v>
@@ -8139,18 +8124,18 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B134" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -8161,16 +8146,16 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8178,10 +8163,10 @@
         <v>176</v>
       </c>
       <c r="B136" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D136" t="s">
         <v>204</v>
@@ -8192,24 +8177,24 @@
         <v>176</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
         <v>204</v>
@@ -8217,16 +8202,16 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8234,10 +8219,10 @@
         <v>177</v>
       </c>
       <c r="B140" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
         <v>204</v>
@@ -8248,24 +8233,24 @@
         <v>177</v>
       </c>
       <c r="B141" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
         <v>204</v>
@@ -8273,16 +8258,16 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8290,10 +8275,10 @@
         <v>178</v>
       </c>
       <c r="B144" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
         <v>204</v>
@@ -8304,21 +8289,21 @@
         <v>178</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
@@ -8329,16 +8314,16 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B147" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8346,10 +8331,10 @@
         <v>179</v>
       </c>
       <c r="B148" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
         <v>204</v>
@@ -8360,24 +8345,24 @@
         <v>179</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
         <v>204</v>
@@ -8385,16 +8370,16 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8402,10 +8387,10 @@
         <v>180</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
         <v>204</v>
@@ -8416,24 +8401,24 @@
         <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
         <v>204</v>
@@ -8441,16 +8426,16 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B155" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8458,10 +8443,10 @@
         <v>181</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
         <v>204</v>
@@ -8472,10 +8457,10 @@
         <v>181</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
         <v>204</v>
@@ -8486,10 +8471,10 @@
         <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
         <v>204</v>
@@ -8503,7 +8488,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
         <v>205</v>
@@ -8528,7 +8513,7 @@
         <v>182</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
@@ -8542,10 +8527,10 @@
         <v>182</v>
       </c>
       <c r="B162" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
         <v>204</v>
@@ -8556,10 +8541,10 @@
         <v>182</v>
       </c>
       <c r="B163" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D163" t="s">
         <v>205</v>
@@ -8601,7 +8586,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D166" t="s">
         <v>204</v>
@@ -8612,24 +8597,24 @@
         <v>183</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
         <v>204</v>
@@ -8637,16 +8622,16 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B169" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8654,10 +8639,10 @@
         <v>184</v>
       </c>
       <c r="B170" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
         <v>204</v>
@@ -8668,24 +8653,24 @@
         <v>184</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
         <v>204</v>
@@ -8693,16 +8678,16 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8710,10 +8695,10 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D174" t="s">
         <v>204</v>
@@ -8724,24 +8709,24 @@
         <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
         <v>204</v>
@@ -8749,16 +8734,16 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B177" t="s">
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -8766,10 +8751,10 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D178" t="s">
         <v>204</v>
@@ -8780,69 +8765,69 @@
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B181" t="s">
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -8850,10 +8835,10 @@
         <v>188</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s">
         <v>204</v>
@@ -8864,24 +8849,24 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" t="s">
         <v>204</v>
@@ -8889,13 +8874,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187" t="s">
         <v>204</v>
@@ -8903,13 +8888,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D188" t="s">
         <v>204</v>
@@ -8917,27 +8902,27 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
         <v>204</v>
@@ -8945,13 +8930,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
         <v>204</v>
@@ -8959,13 +8944,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
         <v>204</v>
@@ -8973,55 +8958,55 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D196" t="s">
         <v>204</v>
@@ -9029,55 +9014,55 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B197" t="s">
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B200" t="s">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D200" t="s">
         <v>204</v>
@@ -9085,13 +9070,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D201" t="s">
         <v>204</v>
@@ -9099,13 +9084,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B202" t="s">
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D202" t="s">
         <v>204</v>
@@ -9113,13 +9098,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
         <v>205</v>
@@ -9127,13 +9112,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B204" t="s">
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D204" t="s">
         <v>204</v>
@@ -9141,13 +9126,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
         <v>204</v>
@@ -9155,13 +9140,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D206" t="s">
         <v>204</v>
@@ -9169,7 +9154,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B207" t="s">
         <v>0</v>
@@ -9183,13 +9168,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B208" t="s">
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D208" t="s">
         <v>204</v>
@@ -9197,13 +9182,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D209" t="s">
         <v>204</v>
@@ -9211,13 +9196,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D210" t="s">
         <v>204</v>
@@ -9225,24 +9210,24 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B212" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
@@ -9253,27 +9238,27 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B214" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
         <v>204</v>
@@ -9281,27 +9266,27 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C215" t="s">
         <v>11</v>
       </c>
       <c r="D215" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
         <v>204</v>
@@ -9309,27 +9294,27 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B218" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D218" t="s">
         <v>204</v>
@@ -9337,27 +9322,27 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D220" t="s">
         <v>204</v>
@@ -9365,27 +9350,27 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D221" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B222" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D222" t="s">
         <v>204</v>
@@ -9393,27 +9378,27 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D223" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
         <v>204</v>
@@ -9421,27 +9406,27 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B225" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B226" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D226" t="s">
         <v>204</v>
@@ -9449,69 +9434,69 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B230" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B231" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D231" t="s">
         <v>204</v>
@@ -9519,13 +9504,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D232" t="s">
         <v>204</v>
@@ -9533,66 +9518,66 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D233" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B234" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B235" t="s">
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B236" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D236" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B237" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C237" t="s">
         <v>11</v>
@@ -9603,99 +9588,15 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>201</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>201</v>
-      </c>
-      <c r="B240" t="s">
-        <v>2</v>
-      </c>
-      <c r="C240" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>202</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" t="s">
-        <v>14</v>
-      </c>
-      <c r="D241" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>202</v>
-      </c>
-      <c r="B242" t="s">
-        <v>3</v>
-      </c>
-      <c r="C242" t="s">
-        <v>14</v>
-      </c>
-      <c r="D242" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>202</v>
-      </c>
-      <c r="B243" t="s">
-        <v>4</v>
-      </c>
-      <c r="C243" t="s">
-        <v>14</v>
-      </c>
-      <c r="D243" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>202</v>
-      </c>
-      <c r="B244" t="s">
-        <v>0</v>
-      </c>
-      <c r="C244" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" t="s">
         <v>205</v>
       </c>
     </row>
